--- a/faq(1).xlsx
+++ b/faq(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="552">
   <si>
     <t>id</t>
   </si>
@@ -41,310 +41,1702 @@
     <t>category</t>
   </si>
   <si>
-    <t>Do you provide custom football jerseys?</t>
-  </si>
-  <si>
-    <t>Yes, we offer fully customizable football jerseys with names, numbers and color choices.</t>
-  </si>
-  <si>
-    <t>Customization</t>
-  </si>
-  <si>
-    <t>Can I customize cricket jerseys?</t>
-  </si>
-  <si>
-    <t>Yes, custom cricket jerseys with sublimation printing are available.</t>
-  </si>
-  <si>
-    <t>Do you offer name and number printing?</t>
-  </si>
-  <si>
-    <t>Yes, we print player names and numbers on all jersey types.</t>
-  </si>
-  <si>
-    <t>Can I upload my own design?</t>
-  </si>
-  <si>
-    <t>Yes, you can upload your own design and our team will prepare it for printing.</t>
-  </si>
-  <si>
-    <t>Do you assist with jersey design?</t>
-  </si>
-  <si>
-    <t>Yes, our design team can help you create a custom jersey design.</t>
-  </si>
-  <si>
-    <t>What sizes are available?</t>
-  </si>
-  <si>
-    <t>We offer sizes from XS to 7XL depending on the product.</t>
-  </si>
-  <si>
-    <t>Sizes</t>
-  </si>
-  <si>
-    <t>Do you have kids sizes?</t>
-  </si>
-  <si>
-    <t>Yes, kids sizes are available for most jersey styles.</t>
-  </si>
-  <si>
-    <t>How do I choose the right size?</t>
-  </si>
-  <si>
-    <t>You can refer to our size chart available on each product page.</t>
-  </si>
-  <si>
-    <t>Do sizes vary by product?</t>
-  </si>
-  <si>
-    <t>Yes, some products have different size patterns. Refer to product specific charts.</t>
-  </si>
-  <si>
-    <t>Are plus sizes available?</t>
-  </si>
-  <si>
-    <t>Yes, plus sizes up to 7XL are available for selected products.</t>
-  </si>
-  <si>
-    <t>What is the delivery time?</t>
-  </si>
-  <si>
-    <t>Delivery takes 7 to 10 working days after order confirmation.</t>
+    <t>What is IRA Sportswear's mission?</t>
+  </si>
+  <si>
+    <t>Our mission at IRA Sportswear is to deliver best-in-class custom sports apparel and empower every athlete to reach their full potential! We're passionate about helping teams look and perform their best.</t>
+  </si>
+  <si>
+    <t>General Company</t>
+  </si>
+  <si>
+    <t>When was IRA Sportswear founded?</t>
+  </si>
+  <si>
+    <t>We were founded in 2010, and since then we've been dedicated to providing top-quality custom sportswear to teams around the world!</t>
+  </si>
+  <si>
+    <t>Is IRA Sportswear part of a larger group?</t>
+  </si>
+  <si>
+    <t>Yes! We're proud to be part of Accrue Sourcing Manufacturers and Exporters of Hosiery Garments India, which gives us strong manufacturing capabilities and quality control.</t>
+  </si>
+  <si>
+    <t>What are IRA Sportswear's contact numbers?</t>
+  </si>
+  <si>
+    <t>You can reach us at:
+• USA: +1 847 624 2660
+• India: +91 99946 56999
+Feel free to call us anytime - we're here to help!</t>
+  </si>
+  <si>
+    <t>What is the email address for IRA Sportswear?</t>
+  </si>
+  <si>
+    <t>You can email us at info@irasportswear.com. We'll get back to you as soon as possible!</t>
+  </si>
+  <si>
+    <t>Does IRA Sportswear offer international service?</t>
+  </si>
+  <si>
+    <t>Absolutely! We provide services in both the USA and India, and we ship worldwide. No matter where you are, we've got you covered!</t>
+  </si>
+  <si>
+    <t>What makes IRA Sportswear different regarding design costs?</t>
+  </si>
+  <si>
+    <t>Great question! Unlike many competitors, we charge absolutely no extra costs for design elements. You get free customization support - all logos, numbers, and player names are included in the price. What you see is what you pay!</t>
+  </si>
+  <si>
+    <t>Does IRA Sportswear have a customer service team?</t>
+  </si>
+  <si>
+    <t>Yes! We have a dedicated customer service specialist team available 24x7. Whether it's day or night, we're here to assist you with any questions or concerns.</t>
+  </si>
+  <si>
+    <t>How fast can I create a team apparel design?</t>
+  </si>
+  <si>
+    <t>Super fast! With our easy-to-use 3D customization tool, you can create your team apparel design in less than 5 minutes. It's intuitive and fun to use!</t>
+  </si>
+  <si>
+    <t>Does IRA provide real time package tracking?</t>
+  </si>
+  <si>
+    <t>Yes, we do! We offer quick and on-time delivery with real-time package tracking, so you always know exactly where your order is.</t>
+  </si>
+  <si>
+    <t>Where can I find the size guide?</t>
+  </si>
+  <si>
+    <t>You can find our comprehensive size guide right on our website. It has all the measurements you need to ensure the perfect fit for your team!</t>
+  </si>
+  <si>
+    <t>What industry does IRA Sportswear operate in?</t>
+  </si>
+  <si>
+    <t>We operate in the custom sports apparel industry, specializing in creating personalized uniforms and gear for teams, schools, colleges, and sports organizations.</t>
+  </si>
+  <si>
+    <t>Does IRA manufacture products in house?</t>
+  </si>
+  <si>
+    <t>Yes! We manufacture most of our products in-house, which allows us to maintain strict quality control and offer competitive pricing.</t>
+  </si>
+  <si>
+    <t>Does IRA serve academies and institutions?</t>
+  </si>
+  <si>
+    <t>Absolutely! We serve schools, colleges, academies, and corporate teams. Whether you're a small local team or a large institution, we're ready to help!</t>
+  </si>
+  <si>
+    <t>What is IRA's design philosophy?</t>
+  </si>
+  <si>
+    <t>Our design philosophy focuses on three key elements: performance, durability, and personalization. We believe your apparel should work as hard as you do while looking great!</t>
+  </si>
+  <si>
+    <t>What is the minimum order quantity?</t>
+  </si>
+  <si>
+    <t>Our minimum order quantity is 16 jerseys per style. This helps us keep our prices competitive while ensuring quality production!</t>
+  </si>
+  <si>
+    <t>Ordering &amp; Customization</t>
+  </si>
+  <si>
+    <t>What is the MOQ for Playing Jerseys?</t>
+  </si>
+  <si>
+    <t>For Playing Jerseys, our minimum order quantity is 15 units per design pattern. Perfect for small to medium-sized teams!</t>
+  </si>
+  <si>
+    <t>What is the MOQ for Training Shorts?</t>
+  </si>
+  <si>
+    <t>The minimum order quantity for Training Shorts is 15 units per design pattern.</t>
+  </si>
+  <si>
+    <t>What is the MOQ for Caps and Hats?</t>
+  </si>
+  <si>
+    <t>For Caps and Hats, we require a minimum of 15 units per design pattern.</t>
+  </si>
+  <si>
+    <t>Do you keep artwork on file for future orders?</t>
+  </si>
+  <si>
+    <t>Yes, we do! We store all your artwork securely for future reorders, making it super easy and quick when you need to order again. No need to redesign from scratch!</t>
+  </si>
+  <si>
+    <t>Does it cost extra to add logos numbers or player names?</t>
+  </si>
+  <si>
+    <t>Not at all! All logos, numbers, and player names are included in the price. No hidden fees, no surprises - just great value!</t>
+  </si>
+  <si>
+    <t>How many colors can logos be in?</t>
+  </si>
+  <si>
+    <t>With our sublimation process, you can use unlimited colors in your logos! Get as creative as you want - the sky's the limit!</t>
+  </si>
+  <si>
+    <t>Can you design a team logo?</t>
+  </si>
+  <si>
+    <t>Yes, we offer logo design services! There is an additional cost for custom logo design, but our talented designers will work with you to create something amazing for your team.</t>
+  </si>
+  <si>
+    <t>Preferred logo format?</t>
+  </si>
+  <si>
+    <t>We prefer vector files such as AI (Adobe Illustrator) or EPS formats. These give us the best quality for printing. If you don't have these formats, don't worry - we can often work with what you have!</t>
+  </si>
+  <si>
+    <t>What is sublimation?</t>
+  </si>
+  <si>
+    <t>Great question! Sublimation is a high-tech printing process where your artwork is infused directly into the fabric at a molecular level. This means your designs will never fade, crack, or peel - even after countless washes. It's the best quality printing method available!</t>
+  </si>
+  <si>
+    <t>What are the washing instructions?</t>
+  </si>
+  <si>
+    <t>To keep your gear looking great, please:
+• Wash inside out
+• Use cold water
+• Avoid bleach
+• Hang dry
+Following these simple steps will help your apparel last for years!</t>
+  </si>
+  <si>
+    <t>What materials are jerseys made from?</t>
+  </si>
+  <si>
+    <t>Our jerseys are made from high-performance 100% polyester. This material is lightweight, breathable, moisture-wicking, and incredibly durable - perfect for athletic performance!</t>
+  </si>
+  <si>
+    <t>Are logos screened or stitched?</t>
+  </si>
+  <si>
+    <t>Neither! Our logos are sublimated, which is actually better than both screening and stitching. Sublimation means the design is infused into the fabric, so it won't fade, crack, or peel off.</t>
+  </si>
+  <si>
+    <t>Can I upload my own artwork?</t>
+  </si>
+  <si>
+    <t>Absolutely! You can upload your own design, and we'll work with it to create your perfect custom apparel.</t>
+  </si>
+  <si>
+    <t>Can I request design revisions?</t>
+  </si>
+  <si>
+    <t>Yes, of course! We allow multiple revisions to ensure you're completely happy with your design before we go into production.</t>
+  </si>
+  <si>
+    <t>Can I change colors in template designs?</t>
+  </si>
+  <si>
+    <t>Yes! All template colors are fully customizable. You can adjust them to match your team colors perfectly.</t>
+  </si>
+  <si>
+    <t>Do you offer reflective printing?</t>
+  </si>
+  <si>
+    <t>Yes, we do! Reflective printing can be requested and is great for visibility and safety in low-light conditions.</t>
+  </si>
+  <si>
+    <t>Can you match Pantone colors?</t>
+  </si>
+  <si>
+    <t>Absolutely! We offer Pantone color matching to ensure your team colors are exactly right.</t>
+  </si>
+  <si>
+    <t>Is there a limit to number of logos?</t>
+  </si>
+  <si>
+    <t>No limits here! You can add as many logos as you need for your design. Sponsors, team logos, player numbers - bring them all!</t>
+  </si>
+  <si>
+    <t>What are the key fabric features?</t>
+  </si>
+  <si>
+    <t>Our fabrics come packed with performance features:
+• Moisture wicking - keeps you dry
+• Anti-UV - protects from sun damage
+• Anti-Static - no uncomfortable clinging
+• Anti-Microbial - fights odor-causing bacteria
+These features keep you comfortable and performing at your best!</t>
+  </si>
+  <si>
+    <t>Fabric &amp; Technology</t>
+  </si>
+  <si>
+    <t>Does the apparel offer sun protection?</t>
+  </si>
+  <si>
+    <t>Yes! All our apparel includes an Anti-UV coating to protect your skin from harmful sun rays during outdoor activities.</t>
+  </si>
+  <si>
+    <t>Are IRA fabrics stretchable?</t>
+  </si>
+  <si>
+    <t>Yes! Our fabrics offer high flexibility and stretch, allowing for full range of motion during play. Move freely and comfortably!</t>
+  </si>
+  <si>
+    <t>Are fabrics suitable for hot climates?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our breathable fabrics are specifically designed to keep you cool in hot climates. They promote air circulation and wick away moisture.</t>
+  </si>
+  <si>
+    <t>Do fabrics dry quickly?</t>
+  </si>
+  <si>
+    <t>Yes! Our fabrics are quick-drying, so you won't stay damp and uncomfortable during or after your game.</t>
+  </si>
+  <si>
+    <t>Do fabrics cause skin irritation?</t>
+  </si>
+  <si>
+    <t>Not at all! Our fabrics are skin-friendly and hypoallergenic, designed to be comfortable even during intense activity.</t>
+  </si>
+  <si>
+    <t>GSM for Playing Jersey?</t>
+  </si>
+  <si>
+    <t>Our Playing Jerseys are made with 160 GSM fabric - the perfect weight for breathability and durability!</t>
+  </si>
+  <si>
+    <t>Material for Playing Jersey?</t>
+  </si>
+  <si>
+    <t>Playing Jerseys are made from 100% Dri-Fit Polyester, which keeps you cool and dry throughout your game.</t>
+  </si>
+  <si>
+    <t>GSM for Playing Trousers?</t>
+  </si>
+  <si>
+    <t>Our Playing Trousers use 220 GSM fabric, providing extra durability while maintaining comfort.</t>
+  </si>
+  <si>
+    <t>Material for Hoodies?</t>
+  </si>
+  <si>
+    <t>Our Hoodies are made from 330 GSM French Terry - soft, warm, and comfortable!</t>
+  </si>
+  <si>
+    <t>Material for Jackets?</t>
+  </si>
+  <si>
+    <t>Our Jackets feature 330 GSM Suba Butter fabric, which is smooth, durable, and weather-resistant.</t>
+  </si>
+  <si>
+    <t>Are colors fade resistant?</t>
+  </si>
+  <si>
+    <t>Yes! Thanks to our sublimation process, the colors are infused into the fabric and will never fade, even after years of use and washing.</t>
+  </si>
+  <si>
+    <t>Are fabrics pre shrunk?</t>
+  </si>
+  <si>
+    <t>Yes! All our fabrics are pre-shrunk, so you don't have to worry about sizing changes after washing.</t>
+  </si>
+  <si>
+    <t>Are fabrics wrinkle resistant?</t>
+  </si>
+  <si>
+    <t>Yes! Our fabrics are wrinkle-resistant, so your team always looks sharp and professional.</t>
+  </si>
+  <si>
+    <t>Do fabrics retain shape?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our fabrics retain their shape even after many washes and heavy use. They're built to last!</t>
+  </si>
+  <si>
+    <t>What collar options are available?</t>
+  </si>
+  <si>
+    <t>We offer several collar styles to choose from:
+• Insert collar
+• Polo collar
+• Round neck
+• Mandarin collar
+• Rib Neck
+• Zip Neck
+Pick the style that works best for your team!</t>
+  </si>
+  <si>
+    <t>Playing Uniforms</t>
+  </si>
+  <si>
+    <t>Are full sleeves available?</t>
+  </si>
+  <si>
+    <t>Yes! We offer both full sleeves and half sleeves, so you can choose what works best for your sport and climate.</t>
+  </si>
+  <si>
+    <t>Fit styles for trousers?</t>
+  </si>
+  <si>
+    <t>Our trousers come in a straight, non-tapered fit for comfort and ease of movement.</t>
+  </si>
+  <si>
+    <t>Do trousers have pockets?</t>
+  </si>
+  <si>
+    <t>Yes! Our trousers feature secure zipped pockets to safely store your essentials.</t>
+  </si>
+  <si>
+    <t>Waistband design?</t>
+  </si>
+  <si>
+    <t>Our trousers have an elastic waistband with a drawcord, giving you a secure and adjustable fit.</t>
+  </si>
+  <si>
+    <t>Panel options?</t>
+  </si>
+  <si>
+    <t>We offer seven different panel options, allowing you to create unique and dynamic designs for your jerseys!</t>
+  </si>
+  <si>
+    <t>Cut length?</t>
+  </si>
+  <si>
+    <t>Our jerseys feature a mid-length cut - not too long, not too short - just right for athletic performance.</t>
+  </si>
+  <si>
+    <t>Are jersey numbers stitched?</t>
+  </si>
+  <si>
+    <t>No, the numbers are sublimated, which is actually better! They won't fade, peel, or crack like stitched or screen-printed numbers can.</t>
+  </si>
+  <si>
+    <t>Do you offer raglan sleeves?</t>
+  </si>
+  <si>
+    <t>Yes! Raglan sleeves are available and they're great for enhanced shoulder mobility.</t>
+  </si>
+  <si>
+    <t>Are jerseys suitable for tournaments?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our jerseys are suitable for all levels of play, from recreational leagues to professional tournaments.</t>
+  </si>
+  <si>
+    <t>Can you produce non sublimated jerseys?</t>
+  </si>
+  <si>
+    <t>Yes, we can produce non-sublimated jerseys upon request, though sublimation offers the best quality and durability.</t>
+  </si>
+  <si>
+    <t>Colors available for Cricket Whites?</t>
+  </si>
+  <si>
+    <t>We offer two shades:
+• Indian White
+• Australian White
+Both meet standard cricket uniform requirements!</t>
+  </si>
+  <si>
+    <t>Cricket Whites</t>
+  </si>
+  <si>
+    <t>Fits available for Whites tees?</t>
+  </si>
+  <si>
+    <t>Our Cricket Whites tees come in a regular fit, comfortable for all-day wear on the pitch.</t>
+  </si>
+  <si>
+    <t>Sleeve options for Whites?</t>
+  </si>
+  <si>
+    <t>We offer two sleeve options for Cricket Whites to suit your preference and playing conditions.</t>
+  </si>
+  <si>
+    <t>Trousers tapered?</t>
+  </si>
+  <si>
+    <t>No, our Cricket Whites trousers have a non-tapered, traditional fit as per cricket standards.</t>
+  </si>
+  <si>
+    <t>Embellishment for Whites?</t>
+  </si>
+  <si>
+    <t>For Cricket Whites, we use fusing for logos and emblems to maintain the classic, clean look.</t>
+  </si>
+  <si>
+    <t>Women Whites trouser sizes?</t>
+  </si>
+  <si>
+    <t>Our Women's Cricket Whites trousers are available in sizes XS to 2XL.</t>
+  </si>
+  <si>
+    <t>Do Whites shrink?</t>
+  </si>
+  <si>
+    <t>No worries! Our Cricket Whites are pre-shrunk, so they'll maintain their size after washing.</t>
+  </si>
+  <si>
+    <t>Are Whites see through?</t>
+  </si>
+  <si>
+    <t>Not at all! We use high GSM fabric to prevent any transparency, even in white colors.</t>
+  </si>
+  <si>
+    <t>Can Whites have logos?</t>
+  </si>
+  <si>
+    <t>Yes! Logos can be added to Cricket Whites while maintaining the traditional appearance.</t>
+  </si>
+  <si>
+    <t>Do Whites trousers have pockets?</t>
+  </si>
+  <si>
+    <t>Yes, our Cricket Whites trousers include pockets for convenience.</t>
+  </si>
+  <si>
+    <t>Fabric weight for Training Jersey?</t>
+  </si>
+  <si>
+    <t>Our Training Jerseys use 150 GSM fabric - lightweight and perfect for practice sessions!</t>
+  </si>
+  <si>
+    <t>Training &amp; Fan Wear</t>
+  </si>
+  <si>
+    <t>Match training jersey to playing jersey?</t>
+  </si>
+  <si>
+    <t>Yes! We can match your training jerseys to your playing jerseys for a cohesive team look.</t>
+  </si>
+  <si>
+    <t>Super Interlock used for?</t>
+  </si>
+  <si>
+    <t>We use Super Interlock fabric for our Training Shorts - it's durable and comfortable for all your training needs.</t>
+  </si>
+  <si>
+    <t>Youth Training Tank sizes?</t>
+  </si>
+  <si>
+    <t>Youth Training Tanks are available in sizes 4 to 16, perfect for young athletes!</t>
+  </si>
+  <si>
+    <t>Fan jersey zipper brand?</t>
+  </si>
+  <si>
+    <t>We use YKK zippers on our fan jerseys - the best quality zippers in the industry!</t>
+  </si>
+  <si>
+    <t>Are fan jerseys sublimated?</t>
+  </si>
+  <si>
+    <t>Yes! Fan jerseys feature the same high-quality sublimation as our playing jerseys.</t>
+  </si>
+  <si>
+    <t>Are training shorts stretchable?</t>
+  </si>
+  <si>
+    <t>Yes! Our training shorts have great stretch for maximum comfort and flexibility during workouts.</t>
+  </si>
+  <si>
+    <t>Are fan jerseys customizable?</t>
+  </si>
+  <si>
+    <t>Absolutely! Fan jerseys are fully customizable - perfect for showing team spirit!</t>
+  </si>
+  <si>
+    <t>Are training tanks breathable?</t>
+  </si>
+  <si>
+    <t>Yes! Our training tanks use mesh-based fabric for excellent breathability during intense workouts.</t>
+  </si>
+  <si>
+    <t>Are training shorts suitable for gym?</t>
+  </si>
+  <si>
+    <t>Definitely! Our training shorts are ideal for gym workouts, running, and all types of athletic training.</t>
+  </si>
+  <si>
+    <t>What is the Management Polo designed for?</t>
+  </si>
+  <si>
+    <t>Our Management Polo is specifically designed for sports management teams and sideline staff - professional, comfortable, and practical!</t>
+  </si>
+  <si>
+    <t>Management &amp; Corporate</t>
+  </si>
+  <si>
+    <t>What fabric is used for the Management Polo?</t>
+  </si>
+  <si>
+    <t>We use 180-200 GSM Dri-Fit Polyester Pique fabric - breathable, moisture-wicking, and professional-looking.</t>
+  </si>
+  <si>
+    <t>How many color options are available for the Management Polo?</t>
+  </si>
+  <si>
+    <t>We offer more than 40 color options! You'll definitely find the perfect match for your team colors.</t>
+  </si>
+  <si>
+    <t>What placket design does the Management Polo have?</t>
+  </si>
+  <si>
+    <t>Our Management Polo features a classic two-button placket for a professional appearance.</t>
+  </si>
+  <si>
+    <t>What logo options are available for the Management Polo?</t>
+  </si>
+  <si>
+    <t>You can choose between embroidery or fusing for your logos on Management Polos.</t>
+  </si>
+  <si>
+    <t>Are management polos suitable for outdoor sports events?</t>
+  </si>
+  <si>
+    <t>Yes! They're breathable and moisture-wicking, making them perfect for outdoor sports events in any weather.</t>
+  </si>
+  <si>
+    <t>Can management polos include embroidered initials?</t>
+  </si>
+  <si>
+    <t>Absolutely! Management polos can be personalized with embroidered initials for that professional touch.</t>
+  </si>
+  <si>
+    <t>Do you offer corporate bulk orders?</t>
+  </si>
+  <si>
+    <t>Yes! We support corporate bulk orders with special pricing and dedicated support.</t>
+  </si>
+  <si>
+    <t>Are women's management polos available?</t>
+  </si>
+  <si>
+    <t>Yes! We offer management polos in women's sizes with tailored fits.</t>
+  </si>
+  <si>
+    <t>What zipper brand is used for IRA Jackets?</t>
+  </si>
+  <si>
+    <t>We use YKK zippers on all our jackets - they're the most reliable and durable zippers available!</t>
+  </si>
+  <si>
+    <t>Outerwear</t>
+  </si>
+  <si>
+    <t>Do IRA Jackets have pockets?</t>
+  </si>
+  <si>
+    <t>Yes! Our jackets come with front zip pockets to keep your belongings secure.</t>
+  </si>
+  <si>
+    <t>What collar style do sleeveless jackets have?</t>
+  </si>
+  <si>
+    <t>Our sleeveless jackets feature a mock collar for a sporty, modern look.</t>
+  </si>
+  <si>
+    <t>Are jacket side panels customizable?</t>
+  </si>
+  <si>
+    <t>Yes! The side panels can be fully sublimated with custom designs and colors.</t>
+  </si>
+  <si>
+    <t>Is the Zipped Hoodie windproof?</t>
+  </si>
+  <si>
+    <t>Yes! Our Zipped Hoodie is both breathable and windproof, perfect for cool or windy conditions.</t>
+  </si>
+  <si>
+    <t>What kind of pockets does the Non Zipped Hoodie have?</t>
+  </si>
+  <si>
+    <t>The Non-Zipped Hoodie features a convenient kangaroo pouch pocket in the front.</t>
+  </si>
+  <si>
+    <t>How many solid color options for Zipped Hoodies?</t>
+  </si>
+  <si>
+    <t>We offer three solid color options for Zipped Hoodies: Navy, Red, and Black.</t>
+  </si>
+  <si>
+    <t>Does the Non Zipped Hoodie have a drawcord?</t>
+  </si>
+  <si>
+    <t>Yes! The Non-Zipped Hoodie includes a drawcord for an adjustable hood fit.</t>
+  </si>
+  <si>
+    <t>Are jackets waterproof?</t>
+  </si>
+  <si>
+    <t>Some of our jacket models offer water resistance, which is great for light rain and moisture.</t>
+  </si>
+  <si>
+    <t>Do jackets come with adjustable cuffs?</t>
+  </si>
+  <si>
+    <t>Yes! Our jackets feature adjustable cuffs for a personalized fit.</t>
+  </si>
+  <si>
+    <t>Are hoodies fleece lined?</t>
+  </si>
+  <si>
+    <t>Yes! The inside of our hoodies is lined with soft fleece for warmth and comfort.</t>
+  </si>
+  <si>
+    <t>Are jackets unisex?</t>
+  </si>
+  <si>
+    <t>Yes! Most of our jackets come in unisex fits that work for everyone.</t>
+  </si>
+  <si>
+    <t>Can jackets include player names?</t>
+  </si>
+  <si>
+    <t>Absolutely! We can add customized player names to jackets.</t>
+  </si>
+  <si>
+    <t>What is the closure type for the Caps?</t>
+  </si>
+  <si>
+    <t>Our caps feature a convenient Velcro and loop closure for easy adjustment.</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>What is the shape of the Cap bill?</t>
+  </si>
+  <si>
+    <t>Our caps have a slightly curved bill - the classic, comfortable style!</t>
+  </si>
+  <si>
+    <t>What is the structure of the Cap crown?</t>
+  </si>
+  <si>
+    <t>Our caps feature a pro crown structured design for a professional look that holds its shape.</t>
+  </si>
+  <si>
+    <t>Do Hats have a drawcord?</t>
+  </si>
+  <si>
+    <t>Yes! Our hats include an adjustable drawcord for a secure fit.</t>
+  </si>
+  <si>
+    <t>How many color options for Caps and Hats?</t>
+  </si>
+  <si>
+    <t>We offer twelve color options for caps and hats!</t>
+  </si>
+  <si>
+    <t>What size are Helmet Clads?</t>
+  </si>
+  <si>
+    <t>Helmet Clads are one size fits all - they're designed to stretch and fit most helmets.</t>
+  </si>
+  <si>
+    <t>What logo embellishment is used on Caps?</t>
+  </si>
+  <si>
+    <t>We offer both fusing and embroidery for logos on caps, depending on your preference.</t>
+  </si>
+  <si>
+    <t>Do caps fade under sunlight?</t>
+  </si>
+  <si>
+    <t>No! Our caps are UV protected, so the colors stay vibrant even with sun exposure.</t>
+  </si>
+  <si>
+    <t>Do caps have sweat absorbent bands?</t>
+  </si>
+  <si>
+    <t>Yes! Our caps include moisture-wicking sweatbands to keep you comfortable.</t>
+  </si>
+  <si>
+    <t>Do you offer bucket hats?</t>
+  </si>
+  <si>
+    <t>Yes! Bucket hats can be custom ordered - perfect for sun protection with style!</t>
+  </si>
+  <si>
+    <t>Do caps support 3D puff embroidery?</t>
+  </si>
+  <si>
+    <t>Yes! 3D puff embroidery is available for a premium, raised logo effect.</t>
+  </si>
+  <si>
+    <t>Is Royal Blue available?</t>
+  </si>
+  <si>
+    <t>Yes! Royal Blue is one of our available colors.</t>
+  </si>
+  <si>
+    <t>Color Swatches</t>
+  </si>
+  <si>
+    <t>Is Mint available?</t>
+  </si>
+  <si>
+    <t>Yes! Mint is available and it's a popular fresh color choice.</t>
+  </si>
+  <si>
+    <t>What shades of Yellow exist?</t>
+  </si>
+  <si>
+    <t>We offer four beautiful shades of yellow:
+• Sunshine Yellow
+• Banana Yellow
+• Mustard Yellow
+• Golden Yellow</t>
+  </si>
+  <si>
+    <t>What shades of Red exist?</t>
+  </si>
+  <si>
+    <t>We have three vibrant red options:
+• Arrow Red
+• Racing Red
+• Brick Red</t>
+  </si>
+  <si>
+    <t>What Melange colors are available?</t>
+  </si>
+  <si>
+    <t>Our Melange collection includes:
+• Olive Melange
+• Black Melange
+• Navy Melange
+• Carbon Gray Melange
+These heathered colors look fantastic!</t>
+  </si>
+  <si>
+    <t>Is Hot Pink Melange available?</t>
+  </si>
+  <si>
+    <t>Yes! Hot Pink Melange is available and it's a bold, eye-catching choice.</t>
+  </si>
+  <si>
+    <t>Is Copper Melange available?</t>
+  </si>
+  <si>
+    <t>Yes! Copper Melange is available.</t>
+  </si>
+  <si>
+    <t>Is Saffron Melange available?</t>
+  </si>
+  <si>
+    <t>Yes! Saffron Melange is one of our unique color options.</t>
+  </si>
+  <si>
+    <t>Do you offer neon colors?</t>
+  </si>
+  <si>
+    <t>Yes! We offer neon colors for high visibility and a modern, energetic look.</t>
+  </si>
+  <si>
+    <t>Can you match custom brand colors?</t>
+  </si>
+  <si>
+    <t>Absolutely! We support Pantone color matching to get your exact brand colors perfect.</t>
+  </si>
+  <si>
+    <t>Are melange colors more expensive?</t>
+  </si>
+  <si>
+    <t>No! Melange colors cost the same as our solid colors - no extra charge for the premium look.</t>
+  </si>
+  <si>
+    <t>Can I request matte vs glossy colors?</t>
+  </si>
+  <si>
+    <t>Yes! The color finish can be adjusted between matte and glossy based on your preference.</t>
+  </si>
+  <si>
+    <t>What is the largest size for Men's Playing Jerseys?</t>
+  </si>
+  <si>
+    <t>Our Men's Playing Jerseys go all the way up to 6XL! We believe everyone deserves great gear.</t>
+  </si>
+  <si>
+    <t>Sizing Specifics</t>
+  </si>
+  <si>
+    <t>What is the smallest size available for Kids?</t>
+  </si>
+  <si>
+    <t>Our smallest kids size starts at 5 years old.</t>
+  </si>
+  <si>
+    <t>What is the size range for Women's Jackets?</t>
+  </si>
+  <si>
+    <t>Women's Jackets are available in sizes XS to 2XL.</t>
+  </si>
+  <si>
+    <t>What is the size range for Youth Cricket Whites?</t>
+  </si>
+  <si>
+    <t>Youth Cricket Whites come in sizes YXS to YXL (Youth Extra Small to Youth Extra Large).</t>
+  </si>
+  <si>
+    <t>Do men's items go up to 4XL?</t>
+  </si>
+  <si>
+    <t>Yes! And actually, most of our men's items go up to 6XL for a great fit for everyone.</t>
+  </si>
+  <si>
+    <t>Do you offer plus sizes?</t>
+  </si>
+  <si>
+    <t>Yes! We offer plus sizes up to 6XL. Great sportswear should be available to all athletes.</t>
+  </si>
+  <si>
+    <t>Are sizes true to fit?</t>
+  </si>
+  <si>
+    <t>Yes! Our sizes follow international standards, so they fit true to size. Check our size guide for detailed measurements.</t>
+  </si>
+  <si>
+    <t>Do women's jerseys have a different cut?</t>
+  </si>
+  <si>
+    <t>Yes! Our women's jerseys are specifically tailored with a women's cut for a better, more comfortable fit.</t>
+  </si>
+  <si>
+    <t>Do youth sizes include elastic waist?</t>
+  </si>
+  <si>
+    <t>Yes! Youth trousers include an elastic waistband for comfort and adjustability.</t>
+  </si>
+  <si>
+    <t>Can we order mixed sizes in a bulk order?</t>
+  </si>
+  <si>
+    <t>Absolutely! You can order mixed sizes in a bulk order - perfect for teams with different sized players.</t>
+  </si>
+  <si>
+    <t>Do trousers have different lengths?</t>
+  </si>
+  <si>
+    <t>Yes! We offer tall length options for trousers to accommodate different heights.</t>
+  </si>
+  <si>
+    <t>Do plus sizes cost extra?</t>
+  </si>
+  <si>
+    <t>No! Pricing is the same across all sizes. Fair pricing for everyone.</t>
+  </si>
+  <si>
+    <t>Can I request custom measurements?</t>
+  </si>
+  <si>
+    <t>Yes! For bulk orders, we can accommodate custom measurements to ensure perfect fits.</t>
+  </si>
+  <si>
+    <t>What product is recommended for Umpires?</t>
+  </si>
+  <si>
+    <t>We recommend our FS Umpire Coach Tees - they're specifically designed for officials and coaching staff!</t>
+  </si>
+  <si>
+    <t>Specialized Usage</t>
+  </si>
+  <si>
+    <t>What are Umpire Tees made of?</t>
+  </si>
+  <si>
+    <t>Umpire Tees are made from 200 GSM Polyester Salina fabric - durable and comfortable for long days on the field.</t>
+  </si>
+  <si>
+    <t>What colors do Umpire Tees come in?</t>
+  </si>
+  <si>
+    <t>Umpire Tees are available in six colors:
+• Navy
+• Red
+• Black
+• Orange
+• Pink
+• Sky Blue</t>
+  </si>
+  <si>
+    <t>Are Umpire Tees UV protected?</t>
+  </si>
+  <si>
+    <t>Yes! Umpire Tees include UV protection - important for officials spending hours in the sun.</t>
+  </si>
+  <si>
+    <t>Can Umpire Tees have initials?</t>
+  </si>
+  <si>
+    <t>Yes! Initials can be added to Umpire Tees for personalization.</t>
+  </si>
+  <si>
+    <t>What are Travel Trousers made of?</t>
+  </si>
+  <si>
+    <t>Travel Trousers are made from 330 GSM Suba Butter fabric - soft, comfortable, and perfect for long journeys!</t>
+  </si>
+  <si>
+    <t>What is the purpose of Travel Wear?</t>
+  </si>
+  <si>
+    <t>Travel Wear is designed to keep teams comfortable during travel to and from games. It's stylish, comfortable, and helps build team unity!</t>
+  </si>
+  <si>
+    <t>Are Travel Trousers suitable for flights?</t>
+  </si>
+  <si>
+    <t>Yes! Travel Trousers are ideal for long flights and bus rides - comfortable enough for hours of sitting.</t>
+  </si>
+  <si>
+    <t>Do Travel Trousers have zipped pockets?</t>
+  </si>
+  <si>
+    <t>Yes! Travel Trousers include zipped pockets to keep your valuables secure while traveling.</t>
+  </si>
+  <si>
+    <t>Does the Fan Jersey have a zipper?</t>
+  </si>
+  <si>
+    <t>Yes! The Fan Jersey features a YKK zipper for quality and durability.</t>
+  </si>
+  <si>
+    <t>Is the Training Tank suitable for intense workouts?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our Training Tank is breathable and cooling, perfect for even the most intense workout sessions.</t>
+  </si>
+  <si>
+    <t>Can I get a sleeveless jacket?</t>
+  </si>
+  <si>
+    <t>Yes! We offer a sleeveless version of our jackets - great for layering and freedom of movement.</t>
+  </si>
+  <si>
+    <t>Is the playing jersey slim fit?</t>
+  </si>
+  <si>
+    <t>No, our playing jersey has a regular fit for comfort and ease of movement during play.</t>
+  </si>
+  <si>
+    <t>Is the playing jersey breathable?</t>
+  </si>
+  <si>
+    <t>Yes! Our playing jerseys include dotted mesh zones for enhanced breathability and ventilation.</t>
+  </si>
+  <si>
+    <t>Do batting pads allow customization?</t>
+  </si>
+  <si>
+    <t>Yes! Our batting pad clads support custom logos and designs.</t>
+  </si>
+  <si>
+    <t>Are batting pad clads washable?</t>
+  </si>
+  <si>
+    <t>Yes! Batting pad clads are washable and easy to care for.</t>
+  </si>
+  <si>
+    <t>Do batting pad clads stretch?</t>
+  </si>
+  <si>
+    <t>Yes! They're designed to stretch and fit most standard batting pads.</t>
+  </si>
+  <si>
+    <t>Are coaching tees different from umpire tees?</t>
+  </si>
+  <si>
+    <t>Yes! Coaching tees use different cuts and styling specifically designed for coaches.</t>
+  </si>
+  <si>
+    <t>Are travel sets available?</t>
+  </si>
+  <si>
+    <t>Yes! We offer complete travel sets including travel jackets and trousers for a coordinated team look.</t>
+  </si>
+  <si>
+    <t>Are coaching tees customizable?</t>
+  </si>
+  <si>
+    <t>Yes! Coaching tees can be customized with names and logos.</t>
+  </si>
+  <si>
+    <t>How long does production take?</t>
+  </si>
+  <si>
+    <t>Production usually takes 7 to 14 days, depending on the complexity of your order and current production schedule.</t>
   </si>
   <si>
     <t>Delivery</t>
   </si>
   <si>
-    <t>Do you provide express delivery?</t>
-  </si>
-  <si>
-    <t>Yes, express delivery is available at an additional cost.</t>
+    <t>What is the standard delivery time?</t>
+  </si>
+  <si>
+    <t>Standard delivery time is 10 to 20 days depending on your location. We'll keep you updated every step of the way!</t>
+  </si>
+  <si>
+    <t>Do you offer urgent or express delivery?</t>
+  </si>
+  <si>
+    <t>Yes! Express delivery is available if you need your order faster. Contact us for details and pricing.</t>
   </si>
   <si>
     <t>Do you ship internationally?</t>
   </si>
   <si>
-    <t>Yes, we ship internationally. Shipping charges vary by region.</t>
-  </si>
-  <si>
-    <t>How do I track my order?</t>
-  </si>
-  <si>
-    <t>After dispatch, you will receive a tracking link via SMS and email.</t>
-  </si>
-  <si>
-    <t>Do bulk orders take longer to deliver?</t>
-  </si>
-  <si>
-    <t>Large bulk orders might take 10 to 14 days depending on quantity.</t>
+    <t>Yes! IRA ships worldwide. No matter where your team is located, we can get your gear to you.</t>
+  </si>
+  <si>
+    <t>Are shipping charges included?</t>
+  </si>
+  <si>
+    <t>Shipping charges depend on your location and order size. We'll provide you with a complete quote including shipping before you finalize your order.</t>
+  </si>
+  <si>
+    <t>How are products packaged?</t>
+  </si>
+  <si>
+    <t>Your products come in sealed, moisture-protected bags to ensure they arrive in perfect condition!</t>
+  </si>
+  <si>
+    <t>Can I track the order online?</t>
+  </si>
+  <si>
+    <t>Yes! We provide real-time tracking so you can monitor your order from production to delivery.</t>
+  </si>
+  <si>
+    <t>Do you offer cash on delivery?</t>
+  </si>
+  <si>
+    <t>Unfortunately, COD (Cash on Delivery) is not available. We accept other convenient payment methods though!</t>
+  </si>
+  <si>
+    <t>Which courier partners do you use?</t>
+  </si>
+  <si>
+    <t>We work with reputed national and international courier partners to ensure reliable, timely delivery.</t>
+  </si>
+  <si>
+    <t>Can I order samples?</t>
+  </si>
+  <si>
+    <t>Yes! Sample kits are available so you can check the quality before placing a larger order.</t>
+  </si>
+  <si>
+    <t>Can I reorder without redesigning?</t>
+  </si>
+  <si>
+    <t>Absolutely! Since we save your previous artwork, reordering is quick and easy - no need to go through the design process again.</t>
+  </si>
+  <si>
+    <t>Can I modify my order after placing it?</t>
+  </si>
+  <si>
+    <t>Design changes are allowed, but only before we start printing. Once printing begins, changes can't be made.</t>
+  </si>
+  <si>
+    <t>Are bulk orders prioritized?</t>
+  </si>
+  <si>
+    <t>Yes! Bulk orders get priority production slots to ensure timely delivery for your team.</t>
+  </si>
+  <si>
+    <t>What payment methods do you accept?</t>
+  </si>
+  <si>
+    <t>We accept multiple convenient payment methods:
+• UPI
+• Credit/Debit Cards
+• Net Banking
+• Bank Transfer
+Choose whatever works best for you!</t>
+  </si>
+  <si>
+    <t>Payments</t>
   </si>
   <si>
     <t>Do you offer bulk discounts?</t>
   </si>
   <si>
-    <t>Yes, bulk discounts start from 10 pieces upward.</t>
-  </si>
-  <si>
-    <t>Bulk Orders</t>
-  </si>
-  <si>
-    <t>What is the minimum quantity for bulk orders?</t>
-  </si>
-  <si>
-    <t>The minimum bulk order quantity is 10 pieces.</t>
-  </si>
-  <si>
-    <t>Can I get a sample before bulk order?</t>
-  </si>
-  <si>
-    <t>Yes, sample products can be arranged at request.</t>
-  </si>
-  <si>
-    <t>How do I place a team order?</t>
-  </si>
-  <si>
-    <t>You can upload a player list Excel and our team will assist you.</t>
-  </si>
-  <si>
-    <t>Can I order mixed sizes and colors in bulk?</t>
-  </si>
-  <si>
-    <t>Yes, you can choose mixed sizes and colors based on availability.</t>
-  </si>
-  <si>
-    <t>What printing methods do you use?</t>
-  </si>
-  <si>
-    <t>We use sublimation, screen printing and vinyl printing.</t>
-  </si>
-  <si>
-    <t>Printing</t>
-  </si>
-  <si>
-    <t>Which printing method is best for sportswear?</t>
-  </si>
-  <si>
-    <t>Sublimation is the best method for durable, full-color sportswear prints.</t>
-  </si>
-  <si>
-    <t>Do prints fade after washing?</t>
-  </si>
-  <si>
-    <t>No, sublimation prints are fade resistant even after multiple washes.</t>
-  </si>
-  <si>
-    <t>Can I print sponsors on jerseys?</t>
-  </si>
-  <si>
-    <t>Yes, sponsor logos can be added on any jersey.</t>
-  </si>
-  <si>
-    <t>Do you offer embroidery?</t>
-  </si>
-  <si>
-    <t>Yes, embroidery is available for caps and premium apparel.</t>
-  </si>
-  <si>
-    <t>What fabrics do you use for jerseys?</t>
-  </si>
-  <si>
-    <t>We use dry-fit, polyester and breathable mesh fabrics.</t>
-  </si>
-  <si>
-    <t>Fabric</t>
-  </si>
-  <si>
-    <t>Is the fabric suitable for intense sports?</t>
-  </si>
-  <si>
-    <t>Yes, our breathable dry-fit fabric is ideal for active sports.</t>
-  </si>
-  <si>
-    <t>Are the materials stretchable?</t>
-  </si>
-  <si>
-    <t>Yes, many of our fabric types offer 2-way or 4-way stretch.</t>
-  </si>
-  <si>
-    <t>Do fabrics shrink after washing?</t>
-  </si>
-  <si>
-    <t>No, polyester and dry-fit fabrics do not shrink.</t>
-  </si>
-  <si>
-    <t>Is sublimation printing safe on fabric?</t>
-  </si>
-  <si>
-    <t>Yes, sublimation is safe and bonds permanently with the fabric.</t>
-  </si>
-  <si>
-    <t>How do I place an order?</t>
-  </si>
-  <si>
-    <t>You can order directly from the website or contact our team for custom orders.</t>
-  </si>
-  <si>
-    <t>Ordering</t>
-  </si>
-  <si>
-    <t>What payment methods do you accept?</t>
-  </si>
-  <si>
-    <t>We accept UPI, credit cards, debit cards and net banking.</t>
-  </si>
-  <si>
-    <t>Can I make changes after placing an order?</t>
-  </si>
-  <si>
-    <t>Changes can be made within 2 hours of placing the order.</t>
+    <t>Yes! We offer special pricing for large orders. The more you order, the better the rate. Contact us for a custom quote!</t>
+  </si>
+  <si>
+    <t>Is GST included in the price?</t>
+  </si>
+  <si>
+    <t>GST is added separately to the quoted price, as per Indian tax regulations.</t>
+  </si>
+  <si>
+    <t>Do you require advance payment?</t>
+  </si>
+  <si>
+    <t>Yes, we require partial advance payment to begin production. This helps us reserve materials and production slots for your order.</t>
+  </si>
+  <si>
+    <t>Is pricing different for sublimation?</t>
+  </si>
+  <si>
+    <t>Good news! Sublimation is usually included in our standard pricing without any extra charge. You get premium quality at a great price!</t>
+  </si>
+  <si>
+    <t>Is there a design fee?</t>
+  </si>
+  <si>
+    <t>No design fee! Our design support is completely free. We'll work with you to create the perfect design at no additional cost.</t>
+  </si>
+  <si>
+    <t>Do you offer refunds?</t>
+  </si>
+  <si>
+    <t>Refunds are considered on a case-by-case basis depending on the issue and our policy. Please contact our customer service team to discuss any concerns.</t>
+  </si>
+  <si>
+    <t>Do you offer credit options?</t>
+  </si>
+  <si>
+    <t>Yes! Credit options are available for institutions and organizations with established accounts.</t>
+  </si>
+  <si>
+    <t>Can schools get special pricing?</t>
+  </si>
+  <si>
+    <t>Yes! We offer institutional pricing for schools, colleges, and educational institutions. Education is important to us!</t>
+  </si>
+  <si>
+    <t>Do sponsors get discounts?</t>
+  </si>
+  <si>
+    <t>Yes! Orders with sponsor support can receive special discounts. Contact us to discuss your sponsored team's needs.</t>
+  </si>
+  <si>
+    <t>Are your jerseys suitable for professional leagues?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our jerseys are suitable for high-level competition and meet professional standards. Many competitive teams trust IRA!</t>
+  </si>
+  <si>
+    <t>Product Quality</t>
+  </si>
+  <si>
+    <t>Do sublimated prints fade?</t>
+  </si>
+  <si>
+    <t>No, never! Sublimated prints are infused into the fabric at a molecular level, so they'll never fade, even after years of use and washing.</t>
+  </si>
+  <si>
+    <t>Are the fabrics durable?</t>
+  </si>
+  <si>
+    <t>Yes! Our fabrics are tested for sports-level durability. They're built to withstand the rigors of athletic competition.</t>
+  </si>
+  <si>
+    <t>Are colors long lasting?</t>
+  </si>
+  <si>
+    <t>Absolutely! Our colors are long-term UV tested to ensure they stay vibrant season after season.</t>
+  </si>
+  <si>
+    <t>Are zippers branded?</t>
+  </si>
+  <si>
+    <t>Yes! We use YKK branded zippers - the gold standard in zipper quality and reliability.</t>
+  </si>
+  <si>
+    <t>Is stitching reinforced?</t>
+  </si>
+  <si>
+    <t>Yes! All our garments feature reinforced stitching at stress points for maximum durability.</t>
+  </si>
+  <si>
+    <t>Are the trousers tear resistant?</t>
+  </si>
+  <si>
+    <t>Yes! Our trouser fabrics are tear-resistant and built to handle the toughest play.</t>
+  </si>
+  <si>
+    <t>Do pockets have strong zippers?</t>
+  </si>
+  <si>
+    <t>Yes! We use high-strength zippers on all pockets to ensure your belongings stay secure.</t>
+  </si>
+  <si>
+    <t>Do jerseys stretch during play?</t>
+  </si>
+  <si>
+    <t>Yes! Our fabrics include flexible fibers that stretch with your movements and return to their original shape.</t>
+  </si>
+  <si>
+    <t>Do graphics crack?</t>
+  </si>
+  <si>
+    <t>No! Thanks to sublimation, graphics will never crack, peel, or fade. They're a permanent part of the fabric!</t>
+  </si>
+  <si>
+    <t>Are uniforms sweat proof?</t>
+  </si>
+  <si>
+    <t>Our uniforms include moisture-wicking technology that pulls sweat away from your skin, keeping you dry and comfortable.</t>
+  </si>
+  <si>
+    <t>Do you offer sports beyond cricket?</t>
+  </si>
+  <si>
+    <t>Yes! While we specialize in cricket, we cover multiple sports including football, basketball, volleyball, and more!</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Can we order football kits?</t>
+  </si>
+  <si>
+    <t>Absolutely! Football kits are available and fully customizable for your team.</t>
+  </si>
+  <si>
+    <t>Do you make volleyball jerseys?</t>
+  </si>
+  <si>
+    <t>Yes! We create custom volleyball jerseys with all the features you need for the court.</t>
+  </si>
+  <si>
+    <t>Do you make basketball uniforms?</t>
+  </si>
+  <si>
+    <t>Yes! We offer customized basketball sets including jerseys and shorts.</t>
+  </si>
+  <si>
+    <t>Do you offer badminton jerseys?</t>
+  </si>
+  <si>
+    <t>Yes! Badminton kits are available - lightweight and perfect for the sport's demands.</t>
+  </si>
+  <si>
+    <t>Can you make kabaddi kits?</t>
+  </si>
+  <si>
+    <t>Yes! We create kabaddi uniforms designed for the unique requirements of the sport.</t>
+  </si>
+  <si>
+    <t>Do you offer athletics running gear?</t>
+  </si>
+  <si>
+    <t>Yes! We offer athletics and running gear for track and field athletes.</t>
+  </si>
+  <si>
+    <t>Do you make coaching uniforms?</t>
+  </si>
+  <si>
+    <t>Yes! We make coaching uniforms including coaching tees and pants to help staff look professional.</t>
+  </si>
+  <si>
+    <t>Do you provide warmup jackets?</t>
+  </si>
+  <si>
+    <t>Yes! Warmup sets are available to keep your team comfortable before and after competition.</t>
+  </si>
+  <si>
+    <t>Can I see a sample before finalizing?</t>
+  </si>
+  <si>
+    <t>Yes! We provide sample previews or mockups so you can see exactly what you're getting before production.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Can I request a designer consultation?</t>
+  </si>
+  <si>
+    <t>Absolutely! Live design consultation is available. Our designers will work directly with you to bring your vision to life.</t>
+  </si>
+  <si>
+    <t>Can you replicate international team designs?</t>
+  </si>
+  <si>
+    <t>Yes! We can replicate international team designs with customization to make them uniquely yours.</t>
+  </si>
+  <si>
+    <t>Can you redraw low resolution logos?</t>
+  </si>
+  <si>
+    <t>Yes! Vector redrawing is offered for low-resolution logos to ensure crisp, clear printing.</t>
+  </si>
+  <si>
+    <t>Can you apply gradients?</t>
+  </si>
+  <si>
+    <t>Yes! Gradient effects are fully supported and look amazing with sublimation.</t>
+  </si>
+  <si>
+    <t>Can you print flags on jerseys?</t>
+  </si>
+  <si>
+    <t>Yes! Country flags, state flags, or any flags can be printed on your jerseys.</t>
+  </si>
+  <si>
+    <t>Do you offer sleeve pattern customization?</t>
+  </si>
+  <si>
+    <t>Yes! Sleeves are fully customizable - create unique patterns that make your team stand out.</t>
+  </si>
+  <si>
+    <t>Do you support retro designs?</t>
+  </si>
+  <si>
+    <t>Yes! Retro themes are available if you want that classic, throwback look.</t>
+  </si>
+  <si>
+    <t>Can I get special fonts?</t>
+  </si>
+  <si>
+    <t>Yes! Custom fonts are supported. Choose from our library or provide your own.</t>
+  </si>
+  <si>
+    <t>Do you support numbering styles?</t>
+  </si>
+  <si>
+    <t>Yes! We offer multiple numbering styles to match your team's aesthetic.</t>
+  </si>
+  <si>
+    <t>Are your hoodies suitable for winter?</t>
+  </si>
+  <si>
+    <t>Yes! Our hoodies are warm and insulating, perfect for cold weather training and team wear.</t>
+  </si>
+  <si>
+    <t>Do jackets have inside pockets?</t>
+  </si>
+  <si>
+    <t>Some of our jacket models include inner pockets for added convenience and security.</t>
+  </si>
+  <si>
+    <t>Are sleeveless jackets lightweight?</t>
+  </si>
+  <si>
+    <t>Yes! Our sleeveless jackets feature a lightweight design that's perfect for layering.</t>
+  </si>
+  <si>
+    <t>Are hoodies machine washable?</t>
+  </si>
+  <si>
+    <t>Yes! All our hoodies are machine washable for easy care.</t>
+  </si>
+  <si>
+    <t>Are jackets suitable for rain?</t>
+  </si>
+  <si>
+    <t>Some of our jackets offer water-resistant options that provide protection in light rain.</t>
+  </si>
+  <si>
+    <t>Do jackets come with ribbed hems?</t>
+  </si>
+  <si>
+    <t>Yes! Our jackets feature ribbed cuffs and hems for a secure fit and classic athletic look.</t>
+  </si>
+  <si>
+    <t>Do hoodies have metal or plastic zippers?</t>
+  </si>
+  <si>
+    <t>We use YKK metal or nylon zippers depending on the hoodie style - all high quality!</t>
+  </si>
+  <si>
+    <t>Are caps adjustable?</t>
+  </si>
+  <si>
+    <t>Yes! Our caps are adjustable with Velcro closures, so they fit all head sizes comfortably.</t>
+  </si>
+  <si>
+    <t>Do hats come in different sizes?</t>
+  </si>
+  <si>
+    <t>Our hats come in a free size that fits most people comfortably.</t>
+  </si>
+  <si>
+    <t>Can caps include numbers?</t>
+  </si>
+  <si>
+    <t>Yes! Numbers can be embroidered on caps for player identification or jersey number matching.</t>
+  </si>
+  <si>
+    <t>Can caps have side logos?</t>
+  </si>
+  <si>
+    <t>Absolutely! Side logos are allowed and look great on caps.</t>
+  </si>
+  <si>
+    <t>Can helmet clads support printing?</t>
+  </si>
+  <si>
+    <t>Yes! Helmet clads support custom logo printing.</t>
+  </si>
+  <si>
+    <t>Can plus size players request special fittings?</t>
+  </si>
+  <si>
+    <t>Yes! Custom fittings are available for plus-size players to ensure everyone gets the perfect fit.</t>
+  </si>
+  <si>
+    <t>Sizing</t>
+  </si>
+  <si>
+    <t>Do custom measurements cost extra?</t>
+  </si>
+  <si>
+    <t>No! For bulk orders, custom measurements are included at no additional cost.</t>
+  </si>
+  <si>
+    <t>Are kids sizes cheaper?</t>
+  </si>
+  <si>
+    <t>Yes! Kids sizes have different pricing, typically lower than adult sizes.</t>
+  </si>
+  <si>
+    <t>Do sleeves vary by size?</t>
+  </si>
+  <si>
+    <t>Yes! Sleeve lengths are proportionally adjusted across sizes for proper fit.</t>
+  </si>
+  <si>
+    <t>Do you support WhatsApp customer support?</t>
+  </si>
+  <si>
+    <t>Yes! WhatsApp support is available for quick and convenient communication. Message us anytime!</t>
+  </si>
+  <si>
+    <t>General Support</t>
+  </si>
+  <si>
+    <t>Can I speak with a real representative?</t>
+  </si>
+  <si>
+    <t>Absolutely! Human support is available. We believe in real people helping real people!</t>
+  </si>
+  <si>
+    <t>What happens if my order is delayed?</t>
+  </si>
+  <si>
+    <t>If there's a delay, our support team will contact you immediately and provide compensation options. Your satisfaction is our priority!</t>
   </si>
   <si>
     <t>Can I cancel my order?</t>
   </si>
   <si>
-    <t>Cancellations are allowed within 2 hours if the design process hasn't started.</t>
-  </si>
-  <si>
-    <t>Do you provide order confirmation?</t>
-  </si>
-  <si>
-    <t>Yes, you will receive an SMS and email confirmation.</t>
-  </si>
-  <si>
-    <t>Do you accept returns?</t>
-  </si>
-  <si>
-    <t>Returns are accepted only for non-customized products.</t>
-  </si>
-  <si>
-    <t>Returns</t>
-  </si>
-  <si>
-    <t>Are custom products returnable?</t>
-  </si>
-  <si>
-    <t>Customized items are not eligible for return.</t>
-  </si>
-  <si>
-    <t>What if my order is damaged?</t>
-  </si>
-  <si>
-    <t>If the order arrives damaged, we will replace it at no cost.</t>
-  </si>
-  <si>
-    <t>How long does a refund take?</t>
-  </si>
-  <si>
-    <t>Refunds take 5 to 7 working days to process.</t>
-  </si>
-  <si>
-    <t>Do you offer exchange?</t>
-  </si>
-  <si>
-    <t>Exchanges are allowed for size issues on non-custom products.</t>
-  </si>
-  <si>
-    <t>Which sports do you support?</t>
-  </si>
-  <si>
-    <t>We support football, cricket, basketball, volleyball, badminton and more.</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Do you have physical stores?</t>
-  </si>
-  <si>
-    <t>Currently we operate only online.</t>
-  </si>
-  <si>
-    <t>Can I talk to customer support?</t>
-  </si>
-  <si>
-    <t>Yes, you can reach customer support via chat or phone.</t>
-  </si>
-  <si>
-    <t>Do you restock sold-out items?</t>
-  </si>
-  <si>
-    <t>Yes, products are restocked based on demand.</t>
-  </si>
-  <si>
-    <t>Where are your products manufactured?</t>
-  </si>
-  <si>
-    <t>All products are manufactured locally with high quality standards.</t>
-  </si>
-  <si>
-    <t>What is your policy regarding query #46?</t>
-  </si>
-  <si>
-    <t>Our policy for query #46 is handled case by case.</t>
-  </si>
-  <si>
-    <t>Misc</t>
+    <t>Cancellation is allowed before printing begins. Once production starts, cancellations become difficult, but please contact us to discuss options.</t>
+  </si>
+  <si>
+    <t>Do you offer after sales assistance?</t>
+  </si>
+  <si>
+    <t>Yes! After-sales help is available. We're here to support you even after delivery.</t>
+  </si>
+  <si>
+    <t>Can I track revisions?</t>
+  </si>
+  <si>
+    <t>Yes! Revision history is shared with you so you can see all the changes and improvements made to your design.</t>
+  </si>
+  <si>
+    <t>Do you offer franchise options?</t>
+  </si>
+  <si>
+    <t>We're not currently offering franchise opportunities, but we appreciate your interest!</t>
+  </si>
+  <si>
+    <t>Can I partner as a reseller?</t>
+  </si>
+  <si>
+    <t>Yes! Reseller partnerships are available. Contact us to discuss how we can work together!</t>
+  </si>
+  <si>
+    <t>Yes kids pricing differs.</t>
+  </si>
+  <si>
+    <t>Yes proportionally adjusted.</t>
+  </si>
+  <si>
+    <t>6XL.</t>
+  </si>
+  <si>
+    <t>5 years.</t>
+  </si>
+  <si>
+    <t>XS to 2XL.</t>
+  </si>
+  <si>
+    <t>YXS to YXL.</t>
+  </si>
+  <si>
+    <t>Yes most go up to 6XL.</t>
+  </si>
+  <si>
+    <t>Yes up to 6XL.</t>
+  </si>
+  <si>
+    <t>Yes they follow international standards.</t>
+  </si>
+  <si>
+    <t>Yes they are tailored for women.</t>
+  </si>
+  <si>
+    <t>Yes youth trousers include elastic.</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Yes tall length options exist.</t>
+  </si>
+  <si>
+    <t>No pricing is the same.</t>
+  </si>
+  <si>
+    <t>Yes for bulk orders.</t>
+  </si>
+  <si>
+    <t>FS Umpire Coach Tees.</t>
+  </si>
+  <si>
+    <t>200 GSM Polyester Salina.</t>
+  </si>
+  <si>
+    <t>Navy, Red, Black, Orange, Pink, Sky Blue.</t>
+  </si>
+  <si>
+    <t>Yes initials can be added.</t>
+  </si>
+  <si>
+    <t>330 GSM Suba Butter fabric.</t>
+  </si>
+  <si>
+    <t>It keeps teams comfortable during travel.</t>
+  </si>
+  <si>
+    <t>Yes ideal for long travel.</t>
+  </si>
+  <si>
+    <t>Yes zipped pockets are available.</t>
+  </si>
+  <si>
+    <t>Yes a YKK zipper.</t>
+  </si>
+  <si>
+    <t>Yes breathable and cooling.</t>
+  </si>
+  <si>
+    <t>Yes sleeveless version available.</t>
+  </si>
+  <si>
+    <t>No it is regular fit.</t>
+  </si>
+  <si>
+    <t>Yes includes dotted mesh zones.</t>
+  </si>
+  <si>
+    <t>Yes batting pad clads support logos.</t>
+  </si>
+  <si>
+    <t>Yes washable.</t>
+  </si>
+  <si>
+    <t>Yes they stretch to fit most pads.</t>
+  </si>
+  <si>
+    <t>Yes coaching tees use different cuts.</t>
+  </si>
+  <si>
+    <t>Yes travel jackets and trousers are available.</t>
+  </si>
+  <si>
+    <t>Yes with names and logos.</t>
+  </si>
+  <si>
+    <t>150 GSM.</t>
+  </si>
+  <si>
+    <t>Training Shorts.</t>
+  </si>
+  <si>
+    <t>4 to 16.</t>
+  </si>
+  <si>
+    <t>YKK.</t>
+  </si>
+  <si>
+    <t>Yes fully customizable.</t>
+  </si>
+  <si>
+    <t>Yes mesh based.</t>
+  </si>
+  <si>
+    <t>Yes ideal for workouts.</t>
+  </si>
+  <si>
+    <t>What is the minimum quantity for a new order?</t>
+  </si>
+  <si>
+    <t>The minimum order quantity is 16 jerseys per style.</t>
+  </si>
+  <si>
+    <t>Yes. We keep your artwork on file so you can easily reorder jerseys later.</t>
+  </si>
+  <si>
+    <t>Does it cost extra to add logos, numbers or player names?</t>
+  </si>
+  <si>
+    <t>No. All logos, numbers and player names are included in the price.
+This covers sponsor logos, sleeve logos and multi-color numbers. Names are also included for free.</t>
+  </si>
+  <si>
+    <t>How many colors can my logos be in?</t>
+  </si>
+  <si>
+    <t>Your logos can be in unlimited colors. Sublimation printing supports full-color artwork.</t>
+  </si>
+  <si>
+    <t>We don’t have a logo. Can you design one for us?</t>
+  </si>
+  <si>
+    <t>Yes. Our designers can create a team logo at an additional cost.</t>
+  </si>
+  <si>
+    <t>What format should my logos be in?</t>
+  </si>
+  <si>
+    <t>Vector formats such as AI or EPS are preferred.
+But you can send them in any format you have, and if redrawing is needed, we will inform you (extra cost may apply).</t>
+  </si>
+  <si>
+    <t>Sublimation is a printing process where artwork is infused directly into the fabric.
+It guarantees zero color fade, and logos, names and numbers will not peel or wear off.</t>
+  </si>
+  <si>
+    <t>What are the washing instructions for the jerseys?</t>
+  </si>
+  <si>
+    <t>General care guidelines:
+1.Wash inside out.
+2.Use cold water and avoid bleach.
+3.Avoid washing with items that have metal edges (zippers, buckles).
+4.Hang or line dry.</t>
+  </si>
+  <si>
+    <t>What materials are IRA jerseys made from?</t>
+  </si>
+  <si>
+    <t>Our jerseys are made from high-performance 100 percent polyester sports fabrics.</t>
+  </si>
+  <si>
+    <t>Are the logos screened or stitched?</t>
+  </si>
+  <si>
+    <t>Neither.
+All logos, numbers and artwork are sublimated into the fabric, giving a smooth feel with zero color fade.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +1766,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -843,19 +2235,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,7 +2256,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,10 +2380,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1339,13 +2736,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="3.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="42.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1361,651 +2764,4060 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" ht="15.6" spans="1:4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" ht="15.6" spans="1:4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" ht="15.6" spans="1:4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" ht="15.6" spans="1:4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" ht="15.6" spans="1:4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" ht="15.6" spans="1:4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:4">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:4">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:4">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:4">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:4">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:4">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:4">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:4">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:4">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:4">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:4">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:4">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:4">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:4">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:4">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:4">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:4">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:4">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:4">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:4">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:4">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:4">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:4">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="1:4">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:4">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:4">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:4">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:4">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:4">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:4">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="1:4">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="1:4">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:4">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="1:4">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="1:4">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:4">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:4">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" ht="15.6" spans="1:4">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="1:4">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" ht="15.6" spans="1:4">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="1:4">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="1:4">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" ht="15.6" spans="1:4">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" ht="15.6" spans="1:4">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="1:4">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:4">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" ht="15.6" spans="1:4">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" ht="15.6" spans="1:4">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" ht="15.6" spans="1:4">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" ht="15.6" spans="1:4">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" ht="15.6" spans="1:4">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" ht="15.6" spans="1:4">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" ht="15.6" spans="1:4">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" ht="15.6" spans="1:4">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" ht="15.6" spans="1:4">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="1:4">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" ht="15.6" spans="1:4">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" ht="15.6" spans="1:4">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" ht="15.6" spans="1:4">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" ht="15.6" spans="1:4">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" ht="15.6" spans="1:4">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" spans="1:4">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" ht="15.6" spans="1:4">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" ht="15.6" spans="1:4">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" ht="15.6" spans="1:4">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" ht="15.6" spans="1:4">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" ht="15.6" spans="1:4">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" ht="15.6" spans="1:4">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" ht="15.6" spans="1:4">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" ht="15.6" spans="1:4">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" ht="15.6" spans="1:4">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" ht="15.6" spans="1:4">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" ht="15.6" spans="1:4">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" ht="15.6" spans="1:4">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" ht="15.6" spans="1:4">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" ht="15.6" spans="1:4">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" ht="15.6" spans="1:4">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" ht="15.6" spans="1:4">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" ht="15.6" spans="1:4">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" ht="15.6" spans="1:4">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" ht="15.6" spans="1:4">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" ht="15.6" spans="1:4">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" ht="15.6" spans="1:4">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" ht="15.6" spans="1:4">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" ht="15.6" spans="1:4">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" ht="15.6" spans="1:4">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" ht="15.6" spans="1:4">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" ht="15.6" spans="1:4">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" ht="15.6" spans="1:4">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" ht="15.6" spans="1:4">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" ht="15.6" spans="1:4">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" ht="15.6" spans="1:4">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" ht="15.6" spans="1:4">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" ht="15.6" spans="1:4">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" ht="15.6" spans="1:4">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" ht="15.6" spans="1:4">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" ht="15.6" spans="1:4">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" ht="15.6" spans="1:4">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" ht="15.6" spans="1:4">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" ht="15.6" spans="1:4">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" ht="15.6" spans="1:4">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" ht="15.6" spans="1:4">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" ht="15.6" spans="1:4">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" ht="15.6" spans="1:4">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" ht="15.6" spans="1:4">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" ht="15.6" spans="1:4">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" ht="15.6" spans="1:4">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" ht="15.6" spans="1:4">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" ht="15.6" spans="1:4">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" ht="15.6" spans="1:4">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" ht="15.6" spans="1:4">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" ht="15.6" spans="1:4">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" ht="15.6" spans="1:4">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" ht="15.6" spans="1:4">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" ht="15.6" spans="1:4">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" ht="15.6" spans="1:4">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" ht="15.6" spans="1:4">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" ht="15.6" spans="1:4">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" ht="15.6" spans="1:4">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" ht="15.6" spans="1:4">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" ht="15.6" spans="1:4">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" ht="15.6" spans="1:4">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" ht="15.6" spans="1:4">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" ht="15.6" spans="1:4">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" ht="15.6" spans="1:4">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" ht="15.6" spans="1:4">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" ht="15.6" spans="1:4">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" ht="15.6" spans="1:4">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" ht="15.6" spans="1:4">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" ht="15.6" spans="1:4">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" ht="15.6" spans="1:4">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" ht="15.6" spans="1:4">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" ht="15.6" spans="1:4">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" ht="15.6" spans="1:4">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" ht="15.6" spans="1:4">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" ht="15.6" spans="1:4">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" ht="15.6" spans="1:4">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" ht="15.6" spans="1:4">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" ht="15.6" spans="1:4">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" ht="15.6" spans="1:4">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" ht="15.6" spans="1:4">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" ht="15.6" spans="1:4">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" ht="15.6" spans="1:4">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" ht="15.6" spans="1:4">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="1:4">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" ht="15.6" spans="1:4">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="166" ht="15.6" spans="1:4">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167" ht="15.6" spans="1:4">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" ht="15.6" spans="1:4">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" ht="15.6" spans="1:4">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" ht="15.6" spans="1:4">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" ht="15.6" spans="1:4">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="172" ht="15.6" spans="1:4">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="173" ht="15.6" spans="1:4">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" ht="15.6" spans="1:4">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" ht="15.6" spans="1:4">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" ht="15.6" spans="1:4">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" ht="15.6" spans="1:4">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" ht="15.6" spans="1:4">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" ht="15.6" spans="1:4">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" ht="15.6" spans="1:4">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" ht="15.6" spans="1:4">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" ht="15.6" spans="1:4">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" ht="15.6" spans="1:4">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" ht="15.6" spans="1:4">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" ht="15.6" spans="1:4">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="186" ht="15.6" spans="1:4">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" ht="15.6" spans="1:4">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" ht="15.6" spans="1:4">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="189" ht="15.6" spans="1:4">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" ht="15.6" spans="1:4">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" ht="15.6" spans="1:4">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" ht="15.6" spans="1:4">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" ht="15.6" spans="1:4">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" ht="15.6" spans="1:4">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="195" ht="15.6" spans="1:4">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" ht="15.6" spans="1:4">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" ht="15.6" spans="1:4">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" ht="15.6" spans="1:4">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="199" ht="15.6" spans="1:4">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" ht="15.6" spans="1:4">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" ht="15.6" spans="1:4">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" ht="15.6" spans="1:4">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="203" ht="15.6" spans="1:4">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" ht="15.6" spans="1:4">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" ht="15.6" spans="1:4">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" ht="15.6" spans="1:4">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="207" ht="15.6" spans="1:4">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" ht="15.6" spans="1:4">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="209" ht="15.6" spans="1:4">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" ht="15.6" spans="1:4">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" ht="15.6" spans="1:4">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" ht="15.6" spans="1:4">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" ht="15.6" spans="1:4">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" ht="15.6" spans="1:4">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="215" ht="15.6" spans="1:4">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="216" ht="15.6" spans="1:4">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="217" ht="15.6" spans="1:4">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="218" ht="15.6" spans="1:4">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" ht="15.6" spans="1:4">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" ht="15.6" spans="1:4">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" ht="15.6" spans="1:4">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" ht="15.6" spans="1:4">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" ht="15.6" spans="1:4">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="224" ht="15.6" spans="1:4">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" ht="15.6" spans="1:4">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" ht="15.6" spans="1:4">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="227" ht="15.6" spans="1:4">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="228" ht="15.6" spans="1:4">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="229" ht="15.6" spans="1:4">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="230" ht="15.6" spans="1:4">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="231" ht="15.6" spans="1:4">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="232" ht="15.6" spans="1:4">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="233" ht="15.6" spans="1:4">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="234" ht="15.6" spans="1:4">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="235" ht="15.6" spans="1:4">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="236" ht="15.6" spans="1:4">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="237" ht="15.6" spans="1:4">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="238" ht="15.6" spans="1:4">
+      <c r="A238" s="3">
+        <v>226</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" ht="15.6" spans="1:4">
+      <c r="A239" s="3">
+        <v>227</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" ht="15.6" spans="1:4">
+      <c r="A240" s="3">
+        <v>126</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" ht="15.6" spans="1:4">
+      <c r="A241" s="3">
+        <v>127</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" ht="15.6" spans="1:4">
+      <c r="A242" s="3">
+        <v>128</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" ht="15.6" spans="1:4">
+      <c r="A243" s="3">
+        <v>129</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" ht="15.6" spans="1:4">
+      <c r="A244" s="3">
+        <v>130</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" ht="15.6" spans="1:4">
+      <c r="A245" s="3">
+        <v>131</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" ht="15.6" spans="1:4">
+      <c r="A246" s="3">
+        <v>132</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" ht="15.6" spans="1:4">
+      <c r="A247" s="3">
+        <v>133</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="248" ht="15.6" spans="1:4">
+      <c r="A248" s="3">
+        <v>134</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="249" ht="15.6" spans="1:4">
+      <c r="A249" s="3">
+        <v>135</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" ht="15.6" spans="1:4">
+      <c r="A250" s="3">
+        <v>136</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" ht="15.6" spans="1:4">
+      <c r="A251" s="3">
+        <v>137</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" ht="15.6" spans="1:4">
+      <c r="A252" s="3">
+        <v>138</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" ht="15.6" spans="1:4">
+      <c r="A253" s="3">
+        <v>139</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="254" ht="15.6" spans="1:4">
+      <c r="A254" s="3">
+        <v>140</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="255" ht="15.6" spans="1:4">
+      <c r="A255" s="3">
+        <v>141</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="256" ht="15.6" spans="1:4">
+      <c r="A256" s="3">
+        <v>142</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="257" ht="15.6" spans="1:4">
+      <c r="A257" s="3">
+        <v>143</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="258" ht="15.6" spans="1:4">
+      <c r="A258" s="3">
+        <v>144</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" ht="15.6" spans="1:4">
+      <c r="A259" s="3">
+        <v>145</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="260" ht="15.6" spans="1:4">
+      <c r="A260" s="3">
+        <v>146</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="261" ht="15.6" spans="1:4">
+      <c r="A261" s="3">
+        <v>147</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="262" ht="15.6" spans="1:4">
+      <c r="A262" s="3">
+        <v>148</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="263" ht="15.6" spans="1:4">
+      <c r="A263" s="3">
+        <v>149</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="264" ht="15.6" spans="1:4">
+      <c r="A264" s="3">
+        <v>150</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="265" ht="15.6" spans="1:4">
+      <c r="A265" s="3">
+        <v>151</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="266" ht="15.6" spans="1:4">
+      <c r="A266" s="3">
+        <v>152</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="267" ht="15.6" spans="1:4">
+      <c r="A267" s="3">
+        <v>153</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="268" ht="15.6" spans="1:4">
+      <c r="A268" s="3">
+        <v>154</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269" ht="15.6" spans="1:4">
+      <c r="A269" s="3">
+        <v>155</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="270" ht="15.6" spans="1:4">
+      <c r="A270" s="3">
+        <v>156</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="271" ht="15.6" spans="1:4">
+      <c r="A271" s="3">
+        <v>157</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="272" ht="15.6" spans="1:4">
+      <c r="A272" s="3">
+        <v>158</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="273" ht="15.6" spans="1:4">
+      <c r="A273" s="3">
+        <v>71</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="274" ht="15.6" spans="1:4">
+      <c r="A274" s="3">
+        <v>72</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="275" ht="15.6" spans="1:4">
+      <c r="A275" s="3">
+        <v>73</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="276" ht="15.6" spans="1:4">
+      <c r="A276" s="3">
+        <v>74</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="277" ht="15.6" spans="1:4">
+      <c r="A277" s="3">
+        <v>75</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="278" ht="15.6" spans="1:4">
+      <c r="A278" s="3">
+        <v>76</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="279" ht="15.6" spans="1:4">
+      <c r="A279" s="3">
+        <v>77</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="280" ht="15.6" spans="1:4">
+      <c r="A280" s="3">
+        <v>78</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="281" ht="15.6" spans="1:4">
+      <c r="A281" s="3">
+        <v>79</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" ht="15.6" spans="1:4">
+      <c r="A282" s="3">
+        <v>80</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>47</v>
+      </c>
+      <c r="B283" t="s">
+        <v>534</v>
+      </c>
+      <c r="C283" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>48</v>
+      </c>
+      <c r="B284" t="s">
+        <v>44</v>
+      </c>
+      <c r="C284" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="285" ht="28.8" spans="1:3">
+      <c r="A285">
+        <v>49</v>
+      </c>
+      <c r="B285" t="s">
+        <v>537</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B286" t="s">
+        <v>539</v>
+      </c>
+      <c r="C286" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>51</v>
+      </c>
+      <c r="B287" t="s">
+        <v>541</v>
+      </c>
+      <c r="C287" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="288" ht="43.2" spans="1:3">
+      <c r="A288">
+        <v>52</v>
+      </c>
+      <c r="B288" t="s">
+        <v>543</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="289" ht="28.8" spans="1:3">
+      <c r="A289">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B289" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C289" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="290" ht="129.6" spans="1:3">
+      <c r="A290">
+        <v>54</v>
+      </c>
+      <c r="B290" t="s">
+        <v>546</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B291" t="s">
+        <v>548</v>
+      </c>
+      <c r="C291" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="292" ht="43.2" spans="1:3">
+      <c r="A292">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
+      <c r="B292" t="s">
+        <v>550</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="293" ht="15.6" spans="1:4">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D292">
+    <sortCondition ref="D2:D292"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
